--- a/report/performances.xlsx
+++ b/report/performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\venice-is-drowning\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A7784B-7B05-4067-9D68-D2B4485E4152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378B28D-615E-4419-A0C6-146A702CC3C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D86AD6A3-2F0F-4A91-9D0B-568C5C0EA820}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>mod1_ar</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>0.42%</t>
+  </si>
+  <si>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>iterated(real)</t>
+  </si>
+  <si>
+    <t>iterated(pred)</t>
+  </si>
+  <si>
+    <t>interated(pred)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,11 +254,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,6 +311,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -602,15 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E5E8E-4FC0-494D-92B5-DBFA948D772B}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -630,16 +671,18 @@
         <v>3</v>
       </c>
       <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="14"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
@@ -665,20 +708,26 @@
       <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -709,17 +758,21 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -750,17 +803,21 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -791,24 +848,28 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/report/performances.xlsx
+++ b/report/performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\venice-is-drowning\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378B28D-615E-4419-A0C6-146A702CC3C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC517C3-2D93-4BC9-8D32-92AE238A762A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D86AD6A3-2F0F-4A91-9D0B-568C5C0EA820}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>mod1_ar</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>ucm1</t>
-  </si>
-  <si>
-    <t>ucm2</t>
   </si>
   <si>
     <t>lstm1</t>
@@ -269,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,16 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -322,7 +310,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -637,239 +633,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E5E8E-4FC0-494D-92B5-DBFA948D772B}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
-        <v>0</v>
-      </c>
-      <c r="O3" s="17"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>0</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18"/>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/report/performances.xlsx
+++ b/report/performances.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">MAPE</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">ucm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ucm2</t>
   </si>
   <si>
     <t xml:space="preserve">lstm1</t>
@@ -301,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,71 +328,61 @@
         <v>3</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0.11</v>
@@ -416,33 +403,27 @@
         <v>0.46</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
         <v>1.76</v>
       </c>
+      <c r="I3" s="12" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0.49</v>
+      </c>
       <c r="K3" s="12" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L3" s="11" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M3" s="12" t="n">
         <v>2.55</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="L3" s="12" t="n">
         <v>18.25</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="M3" s="13" t="n">
         <v>0.29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0.66</v>
@@ -463,33 +444,27 @@
         <v>0.34</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
         <v>6.11</v>
       </c>
+      <c r="I4" s="12" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>0.95</v>
+      </c>
       <c r="K4" s="12" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="L4" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M4" s="12" t="n">
         <v>5.39</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="L4" s="12" t="n">
         <v>19.22</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="M4" s="13" t="n">
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>2.89</v>
@@ -510,38 +485,31 @@
         <v>0.42</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="n">
         <v>15.68</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="16" t="n">
+      <c r="I5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="16" t="n">
         <v>10.19</v>
       </c>
-      <c r="M5" s="15" t="n">
+      <c r="K5" s="15" t="n">
         <v>9.12</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="17" t="n">
+      <c r="L5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="17" t="n">
         <v>9.03</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/report/performances.xlsx
+++ b/report/performances.xlsx
@@ -301,10 +301,10 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.89"/>
@@ -412,13 +412,13 @@
         <v>0.49</v>
       </c>
       <c r="K3" s="12" t="n">
-        <v>2.55</v>
+        <v>2.22</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>18.25</v>
+        <v>13.54</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
